--- a/biology/Botanique/Trichopilia_marginata/Trichopilia_marginata.xlsx
+++ b/biology/Botanique/Trichopilia_marginata/Trichopilia_marginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichopilia marginata est une espèce d'orchidées du genre Trichopilia que l'on rencontre au Costa Rica et au Panama, ainsi qu'au Guatémala et dans quelques zones de Colombie.
 </t>
@@ -511,13 +523,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trichopilia coccinea Warsz. ex Lindl. &amp; Paxton (1851)
 Trichopilia marginata var. olivacea Rchb.f. (1865)
 Trichopilia crispa Lindl. ex Linden (1869)
 Trichopilia lepida W.G.Sm. (1874)
-Trichopilia marginata var. lepida Veitch (1893)[3]</t>
+Trichopilia marginata var. lepida Veitch (1893)</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce épiphyte se rencontre surtout dans les forêts humides du Costa Rica et de Panama à une altitude entre 800 et 1 400 mètres.
 </t>
